--- a/ドキュメント類/テーブル設計書.xlsx
+++ b/ドキュメント類/テーブル設計書.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b16483034bcea9e/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B2FDA10-721D-455C-A694-13C00F57DE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99775736-D06C-450E-83DA-0B198C7528C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="840" xr2:uid="{904448BC-47CA-49DB-8568-0D49246339AE}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" r:id="rId1"/>
-    <sheet name="m_shop" sheetId="2" r:id="rId2"/>
-    <sheet name="m_taste" sheetId="9" r:id="rId3"/>
-    <sheet name="m_genre" sheetId="10" r:id="rId4"/>
-    <sheet name="m_place" sheetId="3" r:id="rId5"/>
-    <sheet name="m_station" sheetId="4" r:id="rId6"/>
-    <sheet name="m_line" sheetId="5" r:id="rId7"/>
-    <sheet name="m_company" sheetId="6" r:id="rId8"/>
-    <sheet name="m_prefecture" sheetId="7" r:id="rId9"/>
-    <sheet name="t_news" sheetId="8" r:id="rId10"/>
+    <sheet name="DB定義" sheetId="11" r:id="rId2"/>
+    <sheet name="m_shop" sheetId="2" r:id="rId3"/>
+    <sheet name="m_taste" sheetId="9" r:id="rId4"/>
+    <sheet name="m_genre" sheetId="10" r:id="rId5"/>
+    <sheet name="m_place" sheetId="3" r:id="rId6"/>
+    <sheet name="m_station" sheetId="4" r:id="rId7"/>
+    <sheet name="m_line" sheetId="5" r:id="rId8"/>
+    <sheet name="m_company" sheetId="6" r:id="rId9"/>
+    <sheet name="m_prefecture" sheetId="7" r:id="rId10"/>
+    <sheet name="t_news" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="111">
   <si>
     <t>テーブル名（英）</t>
     <rPh sb="4" eb="5">
@@ -320,10 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ine_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>m_line</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -506,6 +503,94 @@
   <si>
     <t>genre_nm</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDBMS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer@localhost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>composer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．定義</t>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．テーブル一覧</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線コード1</t>
+    <rPh sb="0" eb="2">
+      <t>ロセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線コード2</t>
+    <rPh sb="0" eb="2">
+      <t>ロセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線コード3</t>
+    <rPh sb="0" eb="2">
+      <t>ロセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>line1_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>line2_cd</t>
+  </si>
+  <si>
+    <t>line3_cd</t>
   </si>
 </sst>
 </file>
@@ -700,7 +785,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,17 +840,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -774,12 +877,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,6 +1276,295 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F4F6F8-47D6-470A-B4EA-2B72420D6E36}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="3.58203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="7">
+        <v>11</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="9">
+        <v>6</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="7">
+        <v>6</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9896868C-7B28-4B16-8A81-BDD6299ACCB3}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -1209,7 +1595,7 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -1230,7 +1616,7 @@
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1248,18 +1634,18 @@
       <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1274,21 +1660,21 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -1303,21 +1689,21 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="9"/>
       <c r="M7" s="15"/>
       <c r="N7" s="1"/>
@@ -1326,21 +1712,21 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="9">
         <v>4000</v>
       </c>
@@ -1351,21 +1737,21 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="7"/>
       <c r="M9" s="16"/>
       <c r="N9" s="1"/>
@@ -1374,21 +1760,21 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="7"/>
       <c r="M10" s="16"/>
       <c r="N10" s="1"/>
@@ -1397,21 +1783,21 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="7"/>
       <c r="M11" s="16"/>
       <c r="N11" s="1"/>
@@ -1422,19 +1808,36 @@
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="19"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="7"/>
       <c r="M12" s="16"/>
       <c r="N12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -1443,23 +1846,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1467,14 +1853,144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8432119D-9473-4C63-BBB3-95AE2A39A982}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="B2:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A582D8B-83D6-461A-A31A-71BE83974E03}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:N16"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:G11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1536,18 +2052,18 @@
       <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1562,21 +2078,21 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -1591,21 +2107,21 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="9">
         <v>6</v>
       </c>
@@ -1616,21 +2132,21 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="7">
         <v>32</v>
       </c>
@@ -1641,21 +2157,21 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="9">
         <v>6</v>
       </c>
@@ -1666,21 +2182,21 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="7">
         <v>6</v>
       </c>
@@ -1691,21 +2207,21 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="9">
         <v>3</v>
       </c>
@@ -1716,73 +2232,73 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="20" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="9">
         <v>5</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="C13" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="18">
+        <v>512</v>
+      </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="6">
         <v>9</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20" t="s">
+      <c r="C14" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
       <c r="N14" s="10" t="s">
         <v>38</v>
       </c>
@@ -1791,38 +2307,96 @@
       <c r="B15" s="6">
         <v>10</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="19"/>
+      <c r="C15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="10"/>
+      <c r="N15" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="6">
         <v>11</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="10"/>
     </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="6">
+        <v>11</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="41">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -1831,43 +2405,13 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9B504A-BB1D-42A7-BC05-DF27FA861971}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1875,7 +2419,7 @@
   <dimension ref="B2:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1898,7 +2442,7 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -1919,7 +2463,7 @@
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1937,18 +2481,18 @@
       <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1963,21 +2507,21 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -1992,23 +2536,23 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="C7" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="8"/>
@@ -2017,21 +2561,21 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="7">
         <v>16</v>
       </c>
@@ -2042,21 +2586,21 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="20" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="7">
         <v>6</v>
       </c>
@@ -2067,21 +2611,21 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="10" t="s">
@@ -2092,21 +2636,21 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="10" t="s">
@@ -2117,15 +2661,15 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="19"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10"/>
@@ -2134,35 +2678,27 @@
       <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="19"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:K13"/>
@@ -2172,19 +2708,27 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2516DC83-AAAA-434D-B007-B178F0E40C2E}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2215,7 +2759,7 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -2236,7 +2780,7 @@
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -2254,18 +2798,18 @@
       <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -2280,21 +2824,21 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -2309,21 +2853,21 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="9">
         <v>6</v>
       </c>
@@ -2334,21 +2878,21 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
+      <c r="C8" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="7">
         <v>16</v>
       </c>
@@ -2359,21 +2903,21 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="10" t="s">
@@ -2384,21 +2928,21 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="10" t="s">
@@ -2409,15 +2953,15 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="10"/>
@@ -2426,21 +2970,39 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="19"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -2449,31 +3011,13 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C3556E-C019-4B07-BB55-8BEA94A860AC}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2499,10 +3043,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2520,10 +3064,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
@@ -2543,18 +3087,18 @@
       <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="29"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -2569,21 +3113,21 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -2598,21 +3142,21 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="20" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="9">
         <v>6</v>
       </c>
@@ -2623,21 +3167,21 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="20" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="7">
         <v>16</v>
       </c>
@@ -2648,21 +3192,21 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="20" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="9">
         <v>6</v>
       </c>
@@ -2673,21 +3217,21 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="10" t="s">
@@ -2698,21 +3242,21 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="10" t="s">
@@ -2723,15 +3267,15 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10"/>
@@ -2740,29 +3284,33 @@
       <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:K9"/>
@@ -2772,33 +3320,29 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9815B8-181B-46C1-AFF5-06B918210A4B}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:N14"/>
+  <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2860,18 +3404,18 @@
       <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -2886,21 +3430,21 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -2915,21 +3459,21 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="9">
         <v>6</v>
       </c>
@@ -2940,21 +3484,21 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="7">
         <v>16</v>
       </c>
@@ -2965,21 +3509,21 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="9">
         <v>6</v>
       </c>
@@ -2990,113 +3534,193 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="7">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="19">
         <v>6</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="10"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="C11" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="19">
+        <v>6</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="7"/>
+      <c r="C12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="7">
+        <v>6</v>
+      </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="10"/>
+      <c r="C13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="6">
         <v>9</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="19"/>
+      <c r="C14" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="10"/>
+      <c r="N14" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="6">
+        <v>10</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="6">
+        <v>11</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="38">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -3105,37 +3729,14 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4391-62F2-457B-BAA9-53E0FC210249}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3166,7 +3767,7 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -3187,7 +3788,7 @@
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -3205,18 +3806,18 @@
       <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -3231,21 +3832,21 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -3260,21 +3861,21 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="9">
         <v>6</v>
       </c>
@@ -3285,21 +3886,21 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="7">
         <v>16</v>
       </c>
@@ -3310,21 +3911,21 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="9">
         <v>6</v>
       </c>
@@ -3335,21 +3936,21 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="10" t="s">
@@ -3360,21 +3961,21 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="10" t="s">
@@ -3385,21 +3986,39 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="19"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -3408,31 +4027,13 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8338B9C3-29A5-49D7-8CBD-A005014DE174}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3463,7 +4064,7 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -3484,7 +4085,7 @@
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -3502,18 +4103,18 @@
       <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -3528,21 +4129,21 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -3557,21 +4158,21 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="s">
+      <c r="C7" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="9">
         <v>6</v>
       </c>
@@ -3582,21 +4183,21 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="7">
         <v>16</v>
       </c>
@@ -3607,21 +4208,21 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="10" t="s">
@@ -3632,21 +4233,21 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="10" t="s">
@@ -3657,35 +4258,21 @@
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:K11"/>
@@ -3695,269 +4282,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:K10"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F4F6F8-47D6-470A-B4EA-2B72420D6E36}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="B2:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="3.58203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3">
-        <v>43909</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="7">
-        <v>11</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="9">
-        <v>6</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="7">
-        <v>6</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="6">
-        <v>6</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="6">
-        <v>7</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -3966,24 +4296,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ドキュメント類/テーブル設計書.xlsx
+++ b/ドキュメント類/テーブル設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEB7FE0-2B7F-442C-8BC6-43329A3C3810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08286704-4019-49A3-883E-68FF1E9BF16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="840" xr2:uid="{904448BC-47CA-49DB-8568-0D49246339AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="840" activeTab="2" xr2:uid="{904448BC-47CA-49DB-8568-0D49246339AE}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="m_shop" sheetId="2" r:id="rId3"/>
     <sheet name="m_taste" sheetId="9" r:id="rId4"/>
     <sheet name="m_genre" sheetId="10" r:id="rId5"/>
-    <sheet name="m_place" sheetId="3" r:id="rId6"/>
-    <sheet name="m_station" sheetId="4" r:id="rId7"/>
-    <sheet name="m_line" sheetId="5" r:id="rId8"/>
-    <sheet name="t_news" sheetId="8" r:id="rId9"/>
+    <sheet name="m_prefecture" sheetId="7" r:id="rId6"/>
+    <sheet name="m_place" sheetId="3" r:id="rId7"/>
+    <sheet name="t_news" sheetId="8" r:id="rId8"/>
+    <sheet name="m_station" sheetId="4" r:id="rId9"/>
     <sheet name="m_company" sheetId="6" r:id="rId10"/>
-    <sheet name="m_prefecture" sheetId="7" r:id="rId11"/>
+    <sheet name="m_line" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="103">
   <si>
     <t>テーブル名（英）</t>
     <rPh sb="4" eb="5">
@@ -182,13 +182,6 @@
   </si>
   <si>
     <t>place_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最寄りコード</t>
-    <rPh sb="0" eb="2">
-      <t>モヨ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -829,10 +822,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -840,12 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B890D-77B0-474B-B0D7-7E48E1E1B048}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AS14" sqref="AS14"/>
     </sheetView>
   </sheetViews>
@@ -1343,7 +1336,7 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -1364,7 +1357,7 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1382,18 +1375,18 @@
       <c r="C5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1411,18 +1404,18 @@
       <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -1438,20 +1431,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="28"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="9">
         <v>6</v>
       </c>
@@ -1463,20 +1456,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="7">
         <v>16</v>
       </c>
@@ -1488,24 +1481,24 @@
         <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="25" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -1513,24 +1506,24 @@
         <v>5</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
+        <v>33</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -1538,14 +1531,14 @@
         <v>9</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="28"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="10"/>
@@ -1582,14 +1575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F4F6F8-47D6-470A-B4EA-2B72420D6E36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4391-62F2-457B-BAA9-53E0FC210249}">
   <sheetPr>
-    <tabColor theme="2" tint="-0.249977111117893"/>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
   <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1612,7 +1605,7 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -1633,7 +1626,7 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1651,18 +1644,18 @@
       <c r="C5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1680,18 +1673,18 @@
       <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -1707,20 +1700,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="28"/>
+        <v>48</v>
+      </c>
+      <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="9">
         <v>6</v>
       </c>
@@ -1732,22 +1725,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="28"/>
+        <v>52</v>
+      </c>
+      <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="10"/>
@@ -1757,600 +1750,95 @@
         <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="9">
+        <v>6</v>
+      </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="6">
         <v>5</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="D10" s="24"/>
       <c r="E10" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
+        <v>32</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28"/>
+      <c r="C11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="10"/>
+      <c r="N11" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="6">
         <v>7</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="28"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8432119D-9473-4C63-BBB3-95AE2A39A982}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="B2:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.58203125" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A582D8B-83D6-461A-A31A-71BE83974E03}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="B2:N15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="3.58203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3">
-        <v>43909</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="7">
-        <v>11</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="9">
-        <v>6</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="7">
-        <v>32</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="9">
-        <v>6</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="7">
-        <v>6</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="6">
-        <v>6</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="9">
-        <v>3</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="6">
-        <v>7</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="18">
-        <v>512</v>
-      </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="6">
-        <v>8</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="6">
-        <v>9</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="6">
-        <v>10</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -2377,18 +1865,506 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8432119D-9473-4C63-BBB3-95AE2A39A982}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="B2:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.58203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A582D8B-83D6-461A-A31A-71BE83974E03}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="3.58203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="7">
+        <v>11</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="9">
+        <v>6</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="7">
+        <v>32</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="9">
+        <v>4</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="9">
+        <v>6</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="18">
+        <v>512</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="6">
+        <v>8</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="6">
+        <v>9</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2423,7 +2399,7 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -2444,7 +2420,7 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -2462,18 +2438,18 @@
       <c r="C5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -2491,18 +2467,18 @@
       <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -2518,22 +2494,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="28"/>
+        <v>81</v>
+      </c>
+      <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="8"/>
@@ -2543,20 +2519,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="28"/>
+        <v>85</v>
+      </c>
+      <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
+        <v>84</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="7">
         <v>16</v>
       </c>
@@ -2568,20 +2544,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+        <v>87</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="7">
         <v>6</v>
       </c>
@@ -2593,24 +2569,24 @@
         <v>5</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="25" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -2618,24 +2594,24 @@
         <v>6</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28"/>
+        <v>33</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -2643,14 +2619,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="28"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10"/>
@@ -2660,14 +2636,14 @@
         <v>8</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="28"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="10"/>
@@ -2717,7 +2693,7 @@
   <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2740,7 +2716,7 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -2761,7 +2737,7 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -2779,18 +2755,18 @@
       <c r="C5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -2808,18 +2784,18 @@
       <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -2835,22 +2811,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
+        <v>87</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="8"/>
@@ -2860,20 +2836,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="28"/>
+        <v>83</v>
+      </c>
+      <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
+        <v>88</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="7">
         <v>16</v>
       </c>
@@ -2885,24 +2861,24 @@
         <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="25" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -2910,24 +2886,24 @@
         <v>5</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
+        <v>33</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -2935,14 +2911,14 @@
         <v>6</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="28"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="10"/>
@@ -2952,14 +2928,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="28"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10"/>
@@ -2999,6 +2975,295 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F4F6F8-47D6-470A-B4EA-2B72420D6E36}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="3.58203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="7">
+        <v>11</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="7">
+        <v>6</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C3556E-C019-4B07-BB55-8BEA94A860AC}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3006,7 +3271,7 @@
   <dimension ref="B2:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3029,7 +3294,7 @@
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -3050,7 +3315,7 @@
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -3097,18 +3362,18 @@
       <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -3126,20 +3391,20 @@
       <c r="C7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="8"/>
@@ -3149,20 +3414,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="D8" s="27"/>
       <c r="E8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
+        <v>28</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="7">
         <v>16</v>
       </c>
@@ -3174,20 +3439,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="9">
         <v>6</v>
       </c>
@@ -3199,24 +3464,24 @@
         <v>5</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3224,24 +3489,24 @@
         <v>6</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+        <v>33</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3249,14 +3514,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10"/>
@@ -3266,14 +3531,14 @@
         <v>8</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="10"/>
@@ -3315,15 +3580,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9815B8-181B-46C1-AFF5-06B918210A4B}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9896868C-7B28-4B16-8A81-BDD6299ACCB3}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="B2:N13"/>
+  <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3346,7 +3611,7 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -3367,7 +3632,7 @@
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -3385,18 +3650,18 @@
       <c r="C5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
@@ -3414,25 +3679,25 @@
       <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3440,100 +3705,388 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="28"/>
+      <c r="C7" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="29"/>
       <c r="E7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
+        <v>66</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="9">
-        <v>6</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="28"/>
+      <c r="C8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="29"/>
       <c r="E8" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
+        <v>68</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="7">
-        <v>16</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="9">
+        <v>4000</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="28"/>
+      <c r="C9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="29"/>
       <c r="E9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="7">
-        <v>6</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="6">
         <v>5</v>
       </c>
+      <c r="C10" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9815B8-181B-46C1-AFF5-06B918210A4B}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B2:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="3.58203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="7">
+        <v>11</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="9">
+        <v>6</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="7">
+        <v>16</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="7">
+        <v>6</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
       <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="25" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3541,24 +4094,24 @@
         <v>6</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28"/>
+        <v>33</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3566,14 +4119,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="28"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10"/>
@@ -3583,14 +4136,14 @@
         <v>8</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="28"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="28"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="10"/>
@@ -3631,589 +4184,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4391-62F2-457B-BAA9-53E0FC210249}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="B2:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="3.58203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3">
-        <v>43909</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="7">
-        <v>11</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="9">
-        <v>6</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="7">
-        <v>16</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="9">
-        <v>6</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="6">
-        <v>6</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="6">
-        <v>7</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9896868C-7B28-4B16-8A81-BDD6299ACCB3}">
-  <sheetPr>
-    <tabColor theme="1"/>
-  </sheetPr>
-  <dimension ref="B2:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="3.58203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3">
-        <v>43909</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="7">
-        <v>11</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="9">
-        <v>4000</v>
-      </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="6">
-        <v>6</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="6">
-        <v>7</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ドキュメント類/テーブル設計書.xlsx
+++ b/ドキュメント類/テーブル設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08286704-4019-49A3-883E-68FF1E9BF16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA90F75F-3455-4944-9AA4-C65811F68B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="840" activeTab="2" xr2:uid="{904448BC-47CA-49DB-8568-0D49246339AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="840" activeTab="4" xr2:uid="{904448BC-47CA-49DB-8568-0D49246339AE}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="103">
   <si>
     <t>テーブル名（英）</t>
     <rPh sb="4" eb="5">
@@ -819,17 +819,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -838,12 +844,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,7 +991,192 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>62960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>48547</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>84556</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="インク 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A973AD94-4458-4B9C-8723-26A80F97B868}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2856960" y="1606680"/>
+            <a:ext cx="916920" cy="58320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="インク 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A973AD94-4458-4B9C-8723-26A80F97B868}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2848320" y="1598040"/>
+              <a:ext cx="934560" cy="75960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41893</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>225627</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112316</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="インク 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8518E320-9B00-492F-9022-50C95672C626}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3301560" y="2674080"/>
+            <a:ext cx="3443400" cy="3082680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="インク 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8518E320-9B00-492F-9022-50C95672C626}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3292561" y="2665079"/>
+              <a:ext cx="3461038" cy="3100322"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-09-24T05:50:36.577"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 162,'883'0,"-870"-1,-1 0,1-1,12-3,30-5,-36 7,0 0,0-2,0 0,-1-2,0 0,0-1,24-14,5-1,-37 19,1 1,-1 0,1 0,0 1,0 1,0 0,0 0,18 2,-15 0,1-1,-1-1,0 0,18-4,93-20,-81 20,0 1,1 2,49 4,-7 0,579-2,-649 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-09-24T05:50:44.315"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9565 2117,'-1'5,"-1"-1,1 0,-1 1,0-1,0 0,0 0,-1 0,1 0,-5 4,0 2,-55 87,-60 86,80-120,31-45,0-1,-1 0,0-1,-20 19,2-4,-36 46,25-27,-21 26,-52 56,91-106,-26 38,-16 18,-64 66,-145 218,233-311,23-32,1 0,-17 31,23-35,0-1,-21 23,-14 23,13-5,22-37,-1 0,-1-1,0-1,-20 22,13-17,1 0,1 1,-19 35,-30 45,-82 97,116-150,24-37,-1 0,-16 21,17-27,-29 35,-52 48,81-85,1 1,1-1,-11 18,11-16,0 0,0-1,-12 12,-40 37,-17 17,7-7,21-19,3-8,-86 62,-105 78,212-162,-36 23,36-26,-36 29,44-32,0-2,-28 17,-17 11,7 0,-104 57,61-35,32-18,-40 29,39-25,-10 1,-34 24,74-48,-49 26,49-30,-54 39,58-36,-47 24,-7 5,-95 79,127-87,39-30,-28 20,-226 149,220-146,17-13,-45 27,52-35,-42 33,45-31,-1 0,-26 13,18-12,-44 35,27-18,37-29,-1 0,-16 7,18-10,-1 1,1 1,-17 12,17-10,-19 16,0-2,-36 20,29-19,-57 46,50-35,-208 179,167-139,-169 173,149-141,70-72,-99 104,93-86,25-32,-20 21,27-31,0 0,-11 18,7-9,1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1619.13">0 2744,'6'1,"-1"0,1 0,-1 1,0 0,0 0,0 0,0 1,0 0,0 0,-1 0,1 0,-1 1,4 4,16 10,45 24,80 35,-43-23,22 6,139 46,-109-46,52 11,-92-33,36 7,230 67,-200-61,89 34,153 40,-340-106,6 1,117 42,227 62,-32-13,13 31,-323-111,155 55,166 58,-113-43,-215-72,-49-18,69 31,4 9,-63-31,-1 2,61 39,-86-47,40 18,-40-22,-1 0,33 24,6 9,-26-20,-1 2,41 40,312 319,-362-357,-1 0,35 55,-50-69,43 84,72 95,-81-127,59 71,60 53,-157-185,113 113,-89-88,1-1,1-2,2 0,60 36,34 21,-91-57,1-1,1-3,1-1,45 18,21 9,-13-5,-47-27,70 32,-82-31,72 34,-63-31,-1 3,65 47,-56-36,-3-1,-30-20,0-1,1-1,0-1,25 11,108 47,-22-10,-115-54,0 0,-1-1,27 3,-26-4,0 0,0 1,23 8,68 25,-83-28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4546.99">7135 0,'-2'10,"1"0,-2-1,1 1,-1-1,-1 0,1 0,-2 0,1 0,-1-1,-10 12,-11 25,-123 220,142-253,-18 36,20-36,0-1,-1 0,-1 0,-15 20,-10 9,-27 46,-3 3,17-27,-29 37,-49 51,31-33,4-13,-26 27,-74 80,155-174,14-14,-1-1,-26 21,30-30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5145.94">4724 137,'12'19,"1"-1,0 0,2-2,0 1,1-2,25 20,-17-13,3-1,1-1,1-2,1 0,33 14,35 20,117 52,-173-85,370 126,-205-68,-50-17,172 66,-194-57,-36-17,-50-28,24 11,95 61,-69-35,10 7,-65-37,-2 2,40 39,-50-39,40 41,-63-62,0 0,-1 0,0 0,-1 1,6 14,10 39,-16-43,1-1,1 0,12 22,-10-28,0-2,0 1,21 18,-15-16</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1294,7 +1479,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AS14" sqref="AS14"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1331,10 +1516,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
@@ -1352,10 +1537,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
         <v>57</v>
       </c>
@@ -1372,20 +1557,20 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="24"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
@@ -1401,20 +1586,20 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
@@ -1430,20 +1615,20 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="24"/>
       <c r="L7" s="9">
         <v>6</v>
@@ -1455,20 +1640,20 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="28" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="24"/>
       <c r="L8" s="7">
         <v>16</v>
@@ -1480,20 +1665,20 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="24"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -1505,20 +1690,20 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="24"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1530,14 +1715,14 @@
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="24"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1545,20 +1730,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:K11"/>
@@ -1568,6 +1739,20 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,10 +1785,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1621,10 +1806,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
@@ -1641,20 +1826,20 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="24"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
@@ -1670,20 +1855,20 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
@@ -1699,20 +1884,20 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="24"/>
       <c r="L7" s="9">
         <v>6</v>
@@ -1724,20 +1909,20 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="24"/>
       <c r="L8" s="7">
         <v>16</v>
@@ -1749,20 +1934,20 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="28" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="24"/>
       <c r="L9" s="9">
         <v>6</v>
@@ -1774,20 +1959,20 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="24"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -1799,20 +1984,20 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="24"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1824,14 +2009,14 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="24"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1839,6 +2024,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -1847,24 +2050,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,7 +2063,9 @@
   </sheetPr>
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1954,11 +2141,17 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="22" t="s">
         <v>42</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -2019,7 +2212,7 @@
   </sheetPr>
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2038,10 +2231,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2059,10 +2252,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2081,20 +2274,20 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="24"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
@@ -2110,20 +2303,20 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
@@ -2139,20 +2332,20 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="24"/>
       <c r="L7" s="9">
         <v>6</v>
@@ -2164,20 +2357,20 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="24"/>
       <c r="L8" s="7">
         <v>32</v>
@@ -2189,20 +2382,20 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="24"/>
       <c r="L9" s="9">
         <v>4</v>
@@ -2214,20 +2407,20 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="28" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="24"/>
       <c r="L10" s="9">
         <v>6</v>
@@ -2239,21 +2432,21 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="25" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
       <c r="L11" s="18">
         <v>512</v>
       </c>
@@ -2264,20 +2457,20 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="24"/>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="24"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -2289,20 +2482,20 @@
       <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="24"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -2314,14 +2507,14 @@
       <c r="B14" s="6">
         <v>9</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="24"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -2329,26 +2522,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:K11"/>
@@ -2361,6 +2534,26 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:K13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2394,10 +2587,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>79</v>
       </c>
@@ -2415,10 +2608,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
         <v>80</v>
       </c>
@@ -2435,20 +2628,20 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="24"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
@@ -2464,20 +2657,20 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
@@ -2493,20 +2686,20 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="24"/>
       <c r="L7" s="9">
         <v>6</v>
@@ -2518,20 +2711,20 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="28" t="s">
         <v>85</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="24"/>
       <c r="L8" s="7">
         <v>16</v>
@@ -2543,20 +2736,20 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="25" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="24"/>
       <c r="L9" s="7">
         <v>6</v>
@@ -2568,20 +2761,20 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="24"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -2593,20 +2786,20 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="24"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -2618,14 +2811,14 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="24"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -2635,14 +2828,14 @@
       <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="24"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -2650,20 +2843,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:K13"/>
@@ -2673,12 +2858,20 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2692,7 +2885,7 @@
   </sheetPr>
   <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -2711,10 +2904,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>86</v>
       </c>
@@ -2732,10 +2925,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
         <v>82</v>
       </c>
@@ -2752,20 +2945,20 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="24"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
@@ -2781,20 +2974,20 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
@@ -2810,20 +3003,20 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="24"/>
       <c r="L7" s="9">
         <v>3</v>
@@ -2835,20 +3028,20 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="28" t="s">
         <v>83</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="24"/>
       <c r="L8" s="7">
         <v>16</v>
@@ -2860,20 +3053,20 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="24"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -2885,20 +3078,20 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="24"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -2910,14 +3103,14 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="24"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -2927,14 +3120,14 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="24"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -2942,6 +3135,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -2950,24 +3161,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3000,10 +3193,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
@@ -3021,10 +3214,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,20 +3234,20 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="24"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
@@ -3070,20 +3263,20 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
@@ -3099,20 +3292,20 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="24"/>
       <c r="L7" s="9">
         <v>2</v>
@@ -3124,20 +3317,20 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="28" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="24"/>
       <c r="L8" s="7">
         <v>6</v>
@@ -3149,20 +3342,20 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="24"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -3174,20 +3367,20 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="24"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -3199,14 +3392,14 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="24"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -3216,14 +3409,14 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="24"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -3231,14 +3424,15 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:K9"/>
@@ -3248,15 +3442,14 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3330,16 +3523,16 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="34"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="35"/>
@@ -3359,21 +3552,21 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="25" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="7">
         <v>11</v>
       </c>
@@ -3388,21 +3581,21 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="25" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
       <c r="L7" s="9">
         <v>4</v>
       </c>
@@ -3413,21 +3606,21 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="25" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="7">
         <v>16</v>
       </c>
@@ -3438,21 +3631,21 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="25" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="9">
         <v>6</v>
       </c>
@@ -3463,21 +3656,21 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="25" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="10" t="s">
@@ -3488,21 +3681,21 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="25" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="10" t="s">
@@ -3513,15 +3706,15 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="10"/>
@@ -3530,29 +3723,33 @@
       <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:K9"/>
@@ -3562,18 +3759,14 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3606,10 +3799,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
@@ -3627,10 +3820,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
         <v>64</v>
       </c>
@@ -3647,20 +3840,20 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="24"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
@@ -3676,20 +3869,20 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
@@ -3705,20 +3898,20 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="24"/>
       <c r="L7" s="9"/>
       <c r="M7" s="15"/>
@@ -3728,20 +3921,20 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="24"/>
       <c r="L8" s="9">
         <v>4000</v>
@@ -3753,20 +3946,20 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="24"/>
       <c r="L9" s="7"/>
       <c r="M9" s="16"/>
@@ -3776,20 +3969,20 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="24"/>
       <c r="L10" s="7"/>
       <c r="M10" s="16"/>
@@ -3799,20 +3992,20 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="24"/>
       <c r="L11" s="7"/>
       <c r="M11" s="16"/>
@@ -3824,12 +4017,12 @@
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="24"/>
       <c r="L12" s="7"/>
       <c r="M12" s="16"/>
@@ -3837,6 +4030,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:K6"/>
@@ -3845,23 +4055,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3894,10 +4087,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
@@ -3915,10 +4108,10 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
@@ -3935,20 +4128,20 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="24"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="24"/>
       <c r="L5" s="5" t="s">
         <v>13</v>
@@ -3964,20 +4157,20 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="24"/>
       <c r="L6" s="7">
         <v>11</v>
@@ -3993,20 +4186,20 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="28" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="24"/>
       <c r="L7" s="9">
         <v>6</v>
@@ -4018,20 +4211,20 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="28" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="24"/>
       <c r="L8" s="7">
         <v>16</v>
@@ -4043,20 +4236,20 @@
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="24"/>
       <c r="L9" s="7">
         <v>6</v>
@@ -4068,20 +4261,20 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="24"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -4093,20 +4286,20 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="24"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -4118,14 +4311,14 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="24"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -4135,14 +4328,14 @@
       <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="24"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -4150,26 +4343,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:K13"/>
@@ -4179,6 +4352,26 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
